--- a/biology/Zoologie/Anthrax_anthrax/Anthrax_anthrax.xlsx
+++ b/biology/Zoologie/Anthrax_anthrax/Anthrax_anthrax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthrax anthrax est une espèce d'insectes diptères brachycères de la famille des Bombyliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corps velu, foncé, long d'environ 10 mm (abdomen orné de petites taches blanches parfois peu visibles[1]), ailes longues d'environ 10 mm, foncées sauf l'extrémité distale transparente. Trompe très courte contrairement à celle des Bombyles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corps velu, foncé, long d'environ 10 mm (abdomen orné de petites taches blanches parfois peu visibles), ailes longues d'environ 10 mm, foncées sauf l'extrémité distale transparente. Trompe très courte contrairement à celle des Bombyles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe
 </t>
@@ -573,7 +589,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes visibles d'avril à septembre fréquentent les endroits secs où ils apprécient se poser sur les pierres, les écorces, pour se chauffer au soleil.
 Les larves, comme celles du grand Bombyle (Bombylius major), s'attaquent aux larves d'abeilles sauvages.
